--- a/bots/crawl_ch/output/bread_coop_2023-03-08.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-03-08.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -932,7 +932,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -1504,7 +1504,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -1930,7 +1930,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -2024,7 +2024,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E23" t="n">
         <v>4.5</v>
@@ -2072,7 +2072,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -2790,7 +2790,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -2859,7 +2859,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -2932,7 +2932,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -3147,7 +3147,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3216,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -3504,7 +3504,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -3650,7 +3650,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E46" t="n">
         <v>4.5</v>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -3796,7 +3796,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -3869,7 +3869,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -3938,7 +3938,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -4011,7 +4011,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -4080,7 +4080,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -4153,7 +4153,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -4226,7 +4226,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -4299,7 +4299,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -4368,7 +4368,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -4514,7 +4514,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -4583,7 +4583,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -4652,7 +4652,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -4794,7 +4794,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -4863,7 +4863,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -4936,7 +4936,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -5009,7 +5009,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -5082,7 +5082,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -5151,7 +5151,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -5318,7 +5318,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E69" t="n">
         <v>4.5</v>
@@ -5366,7 +5366,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -5439,7 +5439,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -5512,7 +5512,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -5654,7 +5654,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -5727,7 +5727,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -5800,7 +5800,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -5869,7 +5869,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -5938,7 +5938,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -6011,7 +6011,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -6084,7 +6084,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -6153,7 +6153,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -6226,7 +6226,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -6295,7 +6295,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -6364,7 +6364,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -6437,7 +6437,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -6510,7 +6510,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -6583,7 +6583,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -6656,7 +6656,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -6677,7 +6677,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E88" t="n">
         <v>5</v>
@@ -6729,7 +6729,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -6802,7 +6802,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -6871,7 +6871,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -6944,7 +6944,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -6965,7 +6965,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E92" t="n">
         <v>4.5</v>
@@ -7013,7 +7013,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -7082,7 +7082,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -7147,7 +7147,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -7220,7 +7220,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -7293,7 +7293,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -7366,7 +7366,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -7435,7 +7435,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -7504,7 +7504,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -7577,7 +7577,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -7650,7 +7650,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -7723,7 +7723,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -7796,7 +7796,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -7869,7 +7869,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -7938,7 +7938,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -8011,7 +8011,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -8084,7 +8084,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -8157,7 +8157,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -8230,7 +8230,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -8299,7 +8299,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -8368,7 +8368,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -8437,7 +8437,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -8510,7 +8510,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -8579,7 +8579,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -8600,7 +8600,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E115" t="n">
         <v>4.5</v>
@@ -8652,7 +8652,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -8721,7 +8721,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -8794,7 +8794,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -8867,7 +8867,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -8940,7 +8940,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -9009,7 +9009,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -9082,7 +9082,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -9151,7 +9151,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -9220,7 +9220,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -9293,7 +9293,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -9362,7 +9362,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -9431,7 +9431,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -9500,7 +9500,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -9569,7 +9569,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -9638,7 +9638,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -9707,7 +9707,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -9776,7 +9776,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -9845,7 +9845,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -9918,7 +9918,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -9987,7 +9987,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -10056,7 +10056,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -10129,7 +10129,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -10198,7 +10198,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -10267,7 +10267,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -10340,7 +10340,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -10409,7 +10409,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -10478,7 +10478,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -10551,7 +10551,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -10624,7 +10624,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -10645,7 +10645,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E144" t="n">
         <v>4.5</v>
@@ -10697,7 +10697,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -10770,7 +10770,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -10843,7 +10843,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -10912,7 +10912,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -10981,7 +10981,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -11054,7 +11054,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -11127,7 +11127,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -11196,7 +11196,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -11269,7 +11269,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -11338,7 +11338,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -11407,7 +11407,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -11480,7 +11480,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -11549,7 +11549,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -11622,7 +11622,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -11691,7 +11691,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -11764,7 +11764,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -11833,7 +11833,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -11906,7 +11906,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -11979,7 +11979,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -12052,7 +12052,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -12125,7 +12125,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -12194,7 +12194,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -12263,7 +12263,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -12336,7 +12336,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -12409,7 +12409,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -12478,7 +12478,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -12551,7 +12551,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -12620,7 +12620,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -12689,7 +12689,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -12758,7 +12758,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -12827,7 +12827,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -12896,7 +12896,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -12969,7 +12969,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -13042,7 +13042,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -13115,7 +13115,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -13184,7 +13184,7 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -13253,7 +13253,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -13326,7 +13326,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -13395,7 +13395,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -13464,7 +13464,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -13533,7 +13533,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -13602,7 +13602,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -13675,7 +13675,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -13748,7 +13748,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -13821,7 +13821,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -13894,7 +13894,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -13963,7 +13963,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -14032,7 +14032,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -14101,7 +14101,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -14170,7 +14170,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -14239,7 +14239,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -14312,7 +14312,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -14385,7 +14385,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -14458,7 +14458,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -14531,7 +14531,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -14677,7 +14677,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -14750,7 +14750,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -14823,7 +14823,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -14892,7 +14892,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -14913,7 +14913,7 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E204" t="n">
         <v>4</v>
@@ -14965,7 +14965,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -15034,7 +15034,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -15103,7 +15103,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -15172,7 +15172,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -15241,7 +15241,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -15314,7 +15314,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -15383,7 +15383,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -15452,7 +15452,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -15525,7 +15525,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -15598,7 +15598,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -15667,7 +15667,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -15740,7 +15740,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -15809,7 +15809,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -15882,7 +15882,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -15955,7 +15955,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -16024,7 +16024,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -16093,7 +16093,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -16162,7 +16162,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -16231,7 +16231,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -16304,7 +16304,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -16377,7 +16377,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -16446,7 +16446,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -16515,7 +16515,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -16584,7 +16584,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -16653,7 +16653,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -16726,7 +16726,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -16795,7 +16795,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -16864,7 +16864,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -16933,7 +16933,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -17002,7 +17002,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -17071,7 +17071,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -17144,7 +17144,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -17217,7 +17217,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -17290,7 +17290,7 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -17363,7 +17363,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -17432,7 +17432,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -17505,7 +17505,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -17578,7 +17578,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -17647,7 +17647,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -17720,7 +17720,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -17789,7 +17789,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -17862,7 +17862,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -17935,7 +17935,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -18004,7 +18004,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -18073,7 +18073,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -18140,7 +18140,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -18211,7 +18211,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -18284,7 +18284,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -18357,7 +18357,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -18426,7 +18426,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -18499,7 +18499,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -18520,7 +18520,7 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E255" t="n">
         <v>4.5</v>
@@ -18568,7 +18568,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -18637,7 +18637,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -18710,7 +18710,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -18779,7 +18779,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -18848,7 +18848,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -18921,7 +18921,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -18994,7 +18994,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -19067,7 +19067,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -19136,7 +19136,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -19209,7 +19209,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -19282,7 +19282,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -19351,7 +19351,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -19418,7 +19418,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -19491,7 +19491,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -19558,7 +19558,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -19627,7 +19627,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -19698,7 +19698,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -19767,7 +19767,7 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -19836,7 +19836,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -19905,7 +19905,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -19978,7 +19978,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -20047,7 +20047,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -20116,7 +20116,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -20185,7 +20185,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -20252,7 +20252,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -20325,7 +20325,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -20394,7 +20394,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -20463,7 +20463,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -20532,7 +20532,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -20605,7 +20605,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -20674,7 +20674,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -20743,7 +20743,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -20816,7 +20816,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -20885,7 +20885,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -20954,7 +20954,7 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -21023,7 +21023,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -21092,7 +21092,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -21165,7 +21165,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -21234,7 +21234,7 @@
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -21307,7 +21307,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -21376,7 +21376,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -21449,7 +21449,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -21518,7 +21518,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -21587,7 +21587,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -21660,7 +21660,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -21733,7 +21733,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -21806,7 +21806,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -21875,7 +21875,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -21942,7 +21942,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -22011,7 +22011,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -22078,7 +22078,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -22149,7 +22149,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -22218,7 +22218,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -22287,7 +22287,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -22356,7 +22356,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -22425,7 +22425,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -22494,7 +22494,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -22567,7 +22567,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -22634,7 +22634,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -22707,7 +22707,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -22774,7 +22774,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -22843,7 +22843,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -22912,7 +22912,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -22985,7 +22985,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -23054,7 +23054,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -23123,7 +23123,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -23196,7 +23196,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -23269,7 +23269,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -23338,7 +23338,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -23407,7 +23407,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -23476,7 +23476,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -23545,7 +23545,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -23614,7 +23614,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -23683,7 +23683,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -23754,7 +23754,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -23827,7 +23827,7 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -23894,7 +23894,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -23967,7 +23967,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -24036,7 +24036,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -24109,7 +24109,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -24129,9 +24129,11 @@
           <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/pizzateig-pastateig/betty-bossi-pinsateig-kugel/p/7071615</t>
         </is>
       </c>
-      <c r="D335" t="inlineStr"/>
+      <c r="D335" t="n">
+        <v>1</v>
+      </c>
       <c r="E335" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F335" t="inlineStr">
         <is>
@@ -24180,7 +24182,7 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -24249,7 +24251,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -24318,7 +24320,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -24391,7 +24393,7 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -24460,7 +24462,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -24529,7 +24531,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -24598,7 +24600,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -24665,7 +24667,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -24734,7 +24736,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -24803,7 +24805,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -24870,7 +24872,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -24939,7 +24941,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -25012,7 +25014,7 @@
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -25081,7 +25083,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -25150,7 +25152,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -25219,7 +25221,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -25288,7 +25290,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -25357,7 +25359,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -25424,7 +25426,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -25497,7 +25499,7 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -25566,7 +25568,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -25635,7 +25637,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -25704,7 +25706,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -25777,7 +25779,7 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -25846,7 +25848,7 @@
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -25915,7 +25917,7 @@
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -25988,7 +25990,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -26057,7 +26059,7 @@
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -26126,7 +26128,7 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -26195,7 +26197,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -26268,7 +26270,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -26335,7 +26337,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -26404,7 +26406,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -26477,7 +26479,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -26544,7 +26546,7 @@
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -26617,7 +26619,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -26686,7 +26688,7 @@
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -26759,7 +26761,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -26826,7 +26828,7 @@
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -26895,7 +26897,7 @@
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -26964,7 +26966,7 @@
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -27031,7 +27033,7 @@
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -27098,7 +27100,7 @@
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -27167,7 +27169,7 @@
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -27236,7 +27238,7 @@
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -27309,7 +27311,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -27378,7 +27380,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -27445,7 +27447,7 @@
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -27514,7 +27516,7 @@
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -27583,7 +27585,7 @@
       <c r="N384" t="inlineStr"/>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -27650,7 +27652,7 @@
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -27717,7 +27719,7 @@
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -27784,7 +27786,7 @@
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -27857,7 +27859,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -27926,7 +27928,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -27993,7 +27995,7 @@
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -28060,7 +28062,7 @@
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -28127,7 +28129,7 @@
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
@@ -28194,7 +28196,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-03-08 06:49:23</t>
+          <t>2023-03-08 12:57:07</t>
         </is>
       </c>
     </row>
